--- a/slides/lecture05/indirect_function.xlsx
+++ b/slides/lecture05/indirect_function.xlsx
@@ -8,20 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8956" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F15E60F-1157-440A-AB12-0E9837B35447}"/>
+  <xr:revisionPtr revIDLastSave="9133" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C2FFF7-C587-4ED1-8784-166B6E20542D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="8 The INDIRECT function" sheetId="29" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="33" r:id="rId2"/>
-    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId3"/>
+    <sheet name="The INDIRECT function" sheetId="29" r:id="rId1"/>
+    <sheet name="Exercises" sheetId="33" r:id="rId2"/>
+    <sheet name="Exercises (solutions)" sheetId="34" r:id="rId3"/>
+    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="GRADES_CUTTOFFS">{91;80;70;50;40;0}</definedName>
-    <definedName name="GRADES_LETTERS">{"A";"B";"C";"D";"E";"F"}</definedName>
-    <definedName name="TABLEROW">_xlfn.LAMBDA(_xlpm.table_name,_xlpm.column_name, INDIRECT(_xlpm.table_name &amp; "[" &amp; _xlpm.column_name &amp; "]"))</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <r>
       <t xml:space="preserve">The cell </t>
@@ -169,21 +165,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">5.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color theme="3"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>INDIRECT</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Write </t>
     </r>
     <r>
@@ -206,12 +187,142 @@
       <t xml:space="preserve"> in a cell and you get the text "A8#".</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="3"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDIRECT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function</t>
+    </r>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>total sales of each salesperson using the value of D8.</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The tables below are called "AliceTable", "BurtTable", and "JohnTable". Use indirect to calculate the </t>
+    </r>
+  </si>
+  <si>
+    <t>Use the same method to make a column vector 1,2,3,…,10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Consider the following application of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDIRECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;kr&quot;\ * #,##0.00_-;\-&quot;kr&quot;\ * #,##0.00_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +358,47 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +416,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -314,29 +487,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="6" builtinId="29"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{597121F7-0056-4820-BABC-FFE0BDE2D81B}"/>
   </tableStyles>
@@ -513,6 +973,72 @@
     <k n="subType" t="i"/>
   </s>
 </rvStructures>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE49DCC9-846F-45D3-AA24-F512FFD90CD6}" name="AliceTable" displayName="AliceTable" ref="A7:B10" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A7:B10" xr:uid="{CE49DCC9-846F-45D3-AA24-F512FFD90CD6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{28A60BD9-66F4-433E-ABB3-157472AE656B}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{3F8160E6-9AEA-4EA9-B7BC-F9F2D477E815}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{826B33BA-1C6E-40D9-BA69-95E209F6668F}" name="BurtTable" displayName="BurtTable" ref="A13:B16" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A13:B16" xr:uid="{826B33BA-1C6E-40D9-BA69-95E209F6668F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B6620EDF-34D8-4AB0-874D-AABC61773696}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{8C5119C3-7E89-4BE5-B89B-09CDA4C06568}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C94AED93-0B3A-4EBD-8149-0ADBDE9A96DB}" name="JohnTable" displayName="JohnTable" ref="A19:B22" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A19:B22" xr:uid="{C94AED93-0B3A-4EBD-8149-0ADBDE9A96DB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{ACB40920-A4E9-4887-B906-F53CD443A9FD}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{83A0289E-FE3C-4104-94F5-AD56C99E0EAB}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECEFA039-5102-44F1-8ADC-573411588496}" name="AliceTable2" displayName="AliceTable2" ref="A7:B10" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A7:B10" xr:uid="{ECEFA039-5102-44F1-8ADC-573411588496}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BCE4C6C5-0A13-4AD3-86BE-13F5D02FD8C5}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{E9726F87-1C18-4551-924F-D73A317B4A95}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51C09DAE-59F5-49D8-B3A8-1C52CF391948}" name="BurtTable3" displayName="BurtTable3" ref="A13:B16" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A13:B16" xr:uid="{51C09DAE-59F5-49D8-B3A8-1C52CF391948}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00BAB444-9E70-48F2-9733-B103338CA45C}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{AFDC8AB5-6520-44B2-8699-7FD8B0368BF7}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9FF1319-0D4A-43FD-8C21-BCED5171E0D9}" name="JohnTable4" displayName="JohnTable4" ref="A19:B22" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A19:B22" xr:uid="{F9FF1319-0D4A-43FD-8C21-BCED5171E0D9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BD887BF8-DEAC-4E5A-890A-312B8C83BC7E}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{A9541989-B0AD-424B-B791-9E2895DA0678}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,7 +1304,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="968" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -802,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA7F561-FC9F-4BD2-B0F7-2542CA1BA39F}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,18 +1342,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,7 +1388,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -942,17 +1468,665 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571E6AE0-1680-4CED-B8C2-7D8B61F4C335}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <v>900</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A27)</f>
+        <v>=COLUMN(INDIRECT("A:J"))</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" cm="1">
+        <f t="array" aca="1" ref="A27:J27" ca="1">COLUMN(INDIRECT("A:J"))</f>
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E952925-A585-4855-B26A-4561113BCEF6}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10">
+        <v>900</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12">
+        <f ca="1">SUM(INDIRECT(D8&amp;"Table"&amp;"[Sales]"))</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A27)</f>
+        <v>=COLUMN(INDIRECT("A:J"))</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" cm="1">
+        <f t="array" aca="1" ref="A27:J27" ca="1">COLUMN(INDIRECT("A:J"))</f>
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" cm="1">
+        <f t="array" aca="1" ref="A31:A40" ca="1">ROW(INDIRECT("1:10"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBA9B6-0C97-480B-BC7B-D98DF87E7B42}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1007,7 +2181,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwA7ACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAFwAXAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAgACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgBrAHIAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AHQAcgB1AGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AZwBiACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwA7AFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgBcAFwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAIAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAawByACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgB0AHIAdQBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAGcAYgAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
